--- a/Experiments/240909_RC/buffers_mt_large_230503.xlsx
+++ b/Experiments/240909_RC/buffers_mt_large_230503.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/240909_RC/230503/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/240909_RC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B669009B-23DC-3243-A5EF-9EE5A8B30170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A46D5C-9D5E-0846-82A2-CF08C89598B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="15740" xr2:uid="{FF36A93E-6616-5648-9790-6B15ED61A498}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>formate</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Mg-act</t>
   </si>
   <si>
-    <t>Volume in 250ul</t>
-  </si>
-  <si>
     <t>TXTL</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Reactions</t>
   </si>
   <si>
-    <t xml:space="preserve">4 conditions * 3 replicates * 25 ul each = 250 ul needed of 20x diluted = </t>
-  </si>
-  <si>
     <t>to_mal_10</t>
   </si>
   <si>
@@ -123,6 +117,15 @@
   </si>
   <si>
     <t>to_mal_.3</t>
+  </si>
+  <si>
+    <t>to_mal_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 conditions * 3 replicates * 25 ul each = 375 ul needed of 20x diluted = </t>
+  </si>
+  <si>
+    <t>Volume in 100ul</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,15 +188,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49A21E4-99E9-9F4A-8635-82D0FB118991}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,9 +569,9 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
         <v>10</v>
       </c>
       <c r="C2">
@@ -609,9 +619,9 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
         <v>10</v>
       </c>
       <c r="C3">
@@ -659,7 +669,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>3.3</v>
@@ -667,56 +677,69 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>0.34</v>
       </c>
       <c r="D6">
-        <f>250/20</f>
-        <v>12.5</v>
+        <f>375/20</f>
+        <v>18.75</v>
+      </c>
+      <c r="G6">
+        <f>18.75/12.5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1000</v>
       </c>
-      <c r="E10">
-        <f>(10)*(250)/C10</f>
-        <v>2.5</v>
-      </c>
-      <c r="F10">
-        <f>E10*6.2</f>
-        <v>15.5</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <f>(10)*(100)/C10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f>E10*16</f>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -727,12 +750,12 @@
         <v>100</v>
       </c>
       <c r="E11">
-        <f>(1)*(250)/C11</f>
-        <v>2.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F26" si="0">E11*6.2</f>
-        <v>15.5</v>
+        <f>(1)*(100)/C11</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F23" si="0">E11*16</f>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -743,12 +766,12 @@
         <v>50</v>
       </c>
       <c r="E12">
-        <f>(1)*(250)/C12</f>
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>(1)*(100)/C12</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -759,225 +782,197 @@
         <v>50</v>
       </c>
       <c r="E13">
-        <f>(3)*(250)/C13</f>
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <f>(3)*(100)/C13</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <f>(1)*(250)/C14</f>
-        <v>2.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
+        <f>(1)*(100)/C14</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
       <c r="E15">
-        <f>(1)*(250)/C15</f>
+        <f>(1)*(100)/C15</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
       <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <f>(1)*(100)/C16</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
         <v>50</v>
       </c>
-      <c r="E16">
-        <f>(1)*(250)/C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <f>(1)*(250)/C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>(1)*(100)/C17</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <f>(1)*(250)/C18</f>
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>(2)*(100)/C18</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E19">
-        <f>(2)*(250)/C19</f>
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>(10)*(100)/C19</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E21" si="1">(10)*(250)/C20</f>
+        <f>(10)*(100)/C20</f>
         <v>10</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f>(1)*(100)/C21</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E22">
-        <f>(1)*(250)/C22</f>
-        <v>2.5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
+        <f>(1)*(100)/C22</f>
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <f>(1)*(250)/C23</f>
-        <v>0.25</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.55</v>
+        <f>(10)*(100)/C23</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <f>(30)*(250)/C24</f>
-        <v>7.5</v>
+        <f>100-SUM(E9:E23)</f>
+        <v>52.9</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="E25">
-        <f>(10)*(250)/C25</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <f>250-SUM(E10:E25)</f>
-        <v>122.25</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>757.95</v>
+        <f>E24*16</f>
+        <v>846.4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
